--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-healthcareservice-patient-type</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-healthcareservice-patient-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour décrire un ensemble de personnes qui répondent à des critères leur permettant de  bénéficier de la prestation décrite</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -240,21 +240,21 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -1030,10 +1030,10 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -1044,10 +1044,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1058,7 +1058,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>73</v>
@@ -1133,7 +1133,7 @@
         <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>73</v>
@@ -1158,10 +1158,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>73</v>
@@ -1236,10 +1236,10 @@
         <v>74</v>
       </c>
       <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>92</v>
@@ -1266,7 +1266,7 @@
         <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1341,10 +1341,10 @@
         <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI5" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>92</v>
@@ -1369,7 +1369,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>73</v>
@@ -1444,7 +1444,7 @@
         <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>73</v>
@@ -1547,10 +1547,10 @@
         <v>74</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>92</v>
@@ -1572,10 +1572,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>73</v>
@@ -1649,10 +1649,10 @@
         <v>105</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>73</v>
@@ -1677,10 +1677,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>73</v>
@@ -1755,10 +1755,10 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>116</v>
@@ -1782,10 +1782,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>73</v>
@@ -1860,10 +1860,10 @@
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>92</v>
@@ -1888,7 +1888,7 @@
         <v>74</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>73</v>
@@ -1963,7 +1963,7 @@
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>73</v>
@@ -2066,10 +2066,10 @@
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>92</v>
@@ -2091,10 +2091,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2168,10 +2168,10 @@
         <v>105</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>73</v>
@@ -2196,10 +2196,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>73</v>
@@ -2274,10 +2274,10 @@
         <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>116</v>
@@ -2302,7 +2302,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -2377,7 +2377,7 @@
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -2405,7 +2405,7 @@
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2482,10 +2482,10 @@
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>92</v>
@@ -2507,10 +2507,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2587,10 +2587,10 @@
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>140</v>
@@ -2612,10 +2612,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>73</v>
@@ -2692,10 +2692,10 @@
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>140</v>
@@ -2717,10 +2717,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2794,10 +2794,10 @@
         <v>105</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -2900,10 +2900,10 @@
         <v>74</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-healthcareservice-patient-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice-patient-type</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:29:51+00:00</t>
+    <t>2023-04-11T09:33:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -359,13 +359,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Supported patient type</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J29-PublicPrisEnCharge-ROR/FHIR/JDV-J29-PublicPrisEnCharge-ROR</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -373,6 +371,18 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.extension:supportedPatientInfo.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J29-PublicPrisEnCharge-ROR/FHIR/JDV-J29-PublicPrisEnCharge-ROR</t>
   </si>
   <si>
     <t>Extension.extension:ageRange</t>
@@ -779,7 +789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -788,9 +798,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.03515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.41015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -812,7 +822,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="22.3671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="95.86328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1677,7 +1687,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -1725,31 +1735,29 @@
         <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AC9" s="2"/>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>74</v>
@@ -1761,7 +1769,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>106</v>
@@ -1769,20 +1777,20 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -1797,13 +1805,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1830,13 +1838,11 @@
         <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>73</v>
@@ -1854,38 +1860,40 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -1900,13 +1908,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1957,30 +1965,30 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1991,7 +1999,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2003,13 +2011,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2048,42 +2056,42 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2091,10 +2099,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2106,24 +2114,22 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>73</v>
@@ -2153,42 +2159,42 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2211,22 +2217,24 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>73</v>
@@ -2268,19 +2276,19 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>106</v>
@@ -2288,10 +2296,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2314,13 +2322,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2371,7 +2379,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2380,32 +2388,32 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>73</v>
@@ -2417,17 +2425,15 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -2464,53 +2470,53 @@
         <v>73</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2519,19 +2525,19 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2569,42 +2575,42 @@
         <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2624,19 +2630,19 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2686,7 +2692,7 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -2698,18 +2704,18 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2729,19 +2735,19 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2749,7 +2755,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>73</v>
@@ -2791,30 +2797,30 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2822,10 +2828,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>73</v>
@@ -2837,22 +2843,24 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -2894,21 +2902,124 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>106</v>
       </c>
     </row>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:07+00:00</t>
+    <t>2023-04-11T13:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T13:02:58+00:00</t>
+    <t>2023-04-12T12:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T12:26:01+00:00</t>
+    <t>2023-04-12T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:42:58+00:00</t>
+    <t>2023-04-12T15:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:04:36+00:00</t>
+    <t>2023-04-12T15:32:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T15:32:06+00:00</t>
+    <t>2023-04-12T16:09:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:09:30+00:00</t>
+    <t>2023-04-19T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T09:29:32+00:00</t>
+    <t>2023-04-27T07:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T07:56:45+00:00</t>
+    <t>2023-04-28T06:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:37:34+00:00</t>
+    <t>2023-04-28T06:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
+++ b/ig/main/StructureDefinition-ror-healthcareservice-patient-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T06:38:38+00:00</t>
+    <t>2023-05-10T10:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
